--- a/tools/file/game_cat.xlsx
+++ b/tools/file/game_cat.xlsx
@@ -1,61 +1,513 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25330"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DACTech2\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6801786-3DA3-4630-B36C-DBF788200BCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name=" dữ liệu ghi demo" sheetId="1" r:id="rId1"/>
+    <sheet name="ghi dữ liệu" sheetId="1" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <definedNames/>
+  <calcPr calcId="999999" calcMode="auto" calcCompleted="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
-  <si>
-    <t>Cat_name_en</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="156">
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>Title slug</t>
+  </si>
+  <si>
+    <t>Desc</t>
+  </si>
+  <si>
+    <t>Guide</t>
+  </si>
+  <si>
+    <t>2 Player</t>
+  </si>
+  <si>
+    <t>2-Player</t>
+  </si>
+  <si>
+    <t>2 Player,Soccer,Sport,Sports</t>
+  </si>
+  <si>
+    <t>#2player,#soccer,#sport,#sports,</t>
+  </si>
+  <si>
+    <t>Card</t>
+  </si>
+  <si>
+    <t>Card,uno,board</t>
+  </si>
+  <si>
+    <t>#card,#uno,#board,</t>
+  </si>
+  <si>
+    <t>Fish</t>
+  </si>
+  <si>
+    <t>Fishing,Shoot</t>
+  </si>
+  <si>
+    <t>#fishing,#shoot,</t>
+  </si>
+  <si>
+    <t>Girls</t>
+  </si>
+  <si>
+    <t>Animal,Cooking,Cute,Food,Fun,Girls,Kids</t>
+  </si>
+  <si>
+    <t>#animal,#cooking,#cute,#food,#fun,#girls,#kids,</t>
   </si>
   <si>
     <t>Shooting</t>
   </si>
   <si>
-    <t>Fish</t>
-  </si>
-  <si>
-    <t>ID</t>
+    <t>1 Player,3D Games,Shoot,Shooting,Unity3D,weapons,war</t>
+  </si>
+  <si>
+    <t>#1player,#3dgames,#shoot,#shooting,#unity3d,#weapons,#war,</t>
+  </si>
+  <si>
+    <t>Strategy</t>
+  </si>
+  <si>
+    <t>Princess</t>
+  </si>
+  <si>
+    <t>Gold Rush</t>
+  </si>
+  <si>
+    <t>Gold-Rush</t>
+  </si>
+  <si>
+    <t>Driving</t>
+  </si>
+  <si>
+    <t>1 Player,3D Games,Car,Racing,Simulator,Unity3D,Driving</t>
+  </si>
+  <si>
+    <t>#1player,#3dgames,#car,#racing,#simulator,#unity3d,#driving</t>
+  </si>
+  <si>
+    <t>Christmas</t>
+  </si>
+  <si>
+    <t>Halloween</t>
+  </si>
+  <si>
+    <t>Action</t>
+  </si>
+  <si>
+    <t>1 Player,Baby,Boys,Casual,Crazy,action,shooting</t>
+  </si>
+  <si>
+    <t>#1player,#baby,#boys,#casual,#crazy,#action,#shooting,</t>
+  </si>
+  <si>
+    <t>Cartoon</t>
+  </si>
+  <si>
+    <t>Horror</t>
+  </si>
+  <si>
+    <t>Cake making</t>
+  </si>
+  <si>
+    <t>Cake-making</t>
+  </si>
+  <si>
+    <t>Naruto</t>
+  </si>
+  <si>
+    <t>Cooking</t>
+  </si>
+  <si>
+    <t>2D,Burger,Cook,Cooking,cut,Educational,Girls,food</t>
+  </si>
+  <si>
+    <t>#2d,#burger,#cook,#cooking,#cut,#educational,#girls,#food,</t>
+  </si>
+  <si>
+    <t>Clicker</t>
+  </si>
+  <si>
+    <t>Battle,Monster,Shooter,Shooting,Sniper</t>
+  </si>
+  <si>
+    <t>#battle,#monster,#shooter,#shooting,#sniper,</t>
+  </si>
+  <si>
+    <t>Ninja</t>
+  </si>
+  <si>
+    <t>Adventure</t>
+  </si>
+  <si>
+    <t>.io Games,Action,Adventure,Arcade,Car,Cars,action,akill</t>
+  </si>
+  <si>
+    <t>#iogames,#action,#adventure,#arcade,#car,#cars,#action,#akill,</t>
+  </si>
+  <si>
+    <t>Superman</t>
+  </si>
+  <si>
+    <t>Tet</t>
+  </si>
+  <si>
+    <t>Sports</t>
+  </si>
+  <si>
+    <t>Sport,Football,Soocer</t>
+  </si>
+  <si>
+    <t>#sport,#football,#soocer,</t>
+  </si>
+  <si>
+    <t>Fashion</t>
+  </si>
+  <si>
+    <t>Adventure,Bejeweled,Fashion,Classic</t>
+  </si>
+  <si>
+    <t>#adventure,#bejeweled,#fashion,#classic,</t>
+  </si>
+  <si>
+    <t>Scoring</t>
+  </si>
+  <si>
+    <t>Intellectual</t>
+  </si>
+  <si>
+    <t>Puzzle,Intelligent,Skills</t>
+  </si>
+  <si>
+    <t>#puzzle,#intelligent,#skills,</t>
+  </si>
+  <si>
+    <t>3D</t>
+  </si>
+  <si>
+    <t>3D,3D Games,Block,Board,Bricks,HTML5,Hypercasual</t>
+  </si>
+  <si>
+    <t>#3d,#3dgames,#block,#board,#bricks,#html5,#hypercasual,</t>
+  </si>
+  <si>
+    <t>Office</t>
+  </si>
+  <si>
+    <t>Arcade</t>
+  </si>
+  <si>
+    <t>Arcade,Bubble,Casual,Fish,Memory,Monster,Race,runn</t>
+  </si>
+  <si>
+    <t>#arcade,#bubble,#casual,#fish,#memory,#monster,#race,#runn,</t>
+  </si>
+  <si>
+    <t>Y8</t>
+  </si>
+  <si>
+    <t>Pokemon</t>
+  </si>
+  <si>
+    <t>.IO</t>
+  </si>
+  <si>
+    <t>IO,IOgame</t>
+  </si>
+  <si>
+    <t>#io,#iogame,</t>
+  </si>
+  <si>
+    <t>Baby</t>
+  </si>
+  <si>
+    <t>Click,Clicker</t>
+  </si>
+  <si>
+    <t>#click,#clicker,</t>
+  </si>
+  <si>
+    <t>Boys</t>
+  </si>
+  <si>
+    <t>3D,Android,Boy,Brain,Fun,HTML5,Kids,Math,Number</t>
+  </si>
+  <si>
+    <t>#3d,#android,#boy,#brain,#fun,#html5,#kids,#math,#number,</t>
+  </si>
+  <si>
+    <t>Hypercasual</t>
+  </si>
+  <si>
+    <t>.io,.io Games,3D,Android,AR</t>
+  </si>
+  <si>
+    <t>#io,#iogames,#3d,#android,#ar,</t>
+  </si>
+  <si>
+    <t>Multiplayer</t>
+  </si>
+  <si>
+    <t>Fight,Fun,Game,Multiplayer</t>
+  </si>
+  <si>
+    <t>#fight,#fun,#game,#multiplayer,</t>
+  </si>
+  <si>
+    <t>Soccer</t>
+  </si>
+  <si>
+    <t>Ball,Ballon,Boy,Boys,Football,Matching,Shoot,Sport</t>
+  </si>
+  <si>
+    <t>#ball,#ballon,#boy,#boys,#football,#matching,#shoot,#sport,</t>
+  </si>
+  <si>
+    <t>Stickman</t>
+  </si>
+  <si>
+    <t>Building</t>
+  </si>
+  <si>
+    <t>Buiding,assembly,skill,intelligent</t>
+  </si>
+  <si>
+    <t>#buiding,#assembly,#skill,#intelligent,</t>
+  </si>
+  <si>
+    <t>Lego</t>
+  </si>
+  <si>
+    <t>Minecraft</t>
+  </si>
+  <si>
+    <t>#minecraft</t>
+  </si>
+  <si>
+    <t>T-Rex</t>
+  </si>
+  <si>
+    <t>T-rex,animal</t>
+  </si>
+  <si>
+    <t>#trex,#animal,</t>
+  </si>
+  <si>
+    <t>Police</t>
+  </si>
+  <si>
+    <t>Police,strategy,skill</t>
+  </si>
+  <si>
+    <t>#police,#strategy,#skill,</t>
+  </si>
+  <si>
+    <t>War</t>
+  </si>
+  <si>
+    <t>Skill,war,action,shooting</t>
+  </si>
+  <si>
+    <t>#skill,#war,#action,#shooting,</t>
+  </si>
+  <si>
+    <t>Aircraft</t>
+  </si>
+  <si>
+    <t>Snipper</t>
+  </si>
+  <si>
+    <t>Shoot,action</t>
+  </si>
+  <si>
+    <t>#shoot,#action,</t>
+  </si>
+  <si>
+    <t>Truck</t>
+  </si>
+  <si>
+    <t>Truck,action</t>
+  </si>
+  <si>
+    <t>#truck,#action,</t>
+  </si>
+  <si>
+    <t>Train</t>
+  </si>
+  <si>
+    <t>Train,Skill,action</t>
+  </si>
+  <si>
+    <t>#train,#skill,#action,</t>
+  </si>
+  <si>
+    <t>Road bike</t>
+  </si>
+  <si>
+    <t>Road-bike</t>
+  </si>
+  <si>
+    <t>Road-bike,bike,road,action,skill</t>
+  </si>
+  <si>
+    <t>#roadbike,#bike,#road,#action,#skill,</t>
+  </si>
+  <si>
+    <t>Archery</t>
+  </si>
+  <si>
+    <t>Archery,action,sport</t>
+  </si>
+  <si>
+    <t>#archery,#action,#sport,</t>
+  </si>
+  <si>
+    <t>Elsa</t>
+  </si>
+  <si>
+    <t>#elsa</t>
+  </si>
+  <si>
+    <t>Uno</t>
+  </si>
+  <si>
+    <t>Card,uno</t>
+  </si>
+  <si>
+    <t>#card,#uno,</t>
+  </si>
+  <si>
+    <t>Mario</t>
+  </si>
+  <si>
+    <t>#mario</t>
+  </si>
+  <si>
+    <t>Chess</t>
+  </si>
+  <si>
+    <t>Chess,China,skill,intelligent</t>
+  </si>
+  <si>
+    <t>#chess,#china,#skill,#intelligent,</t>
+  </si>
+  <si>
+    <t>Animal</t>
+  </si>
+  <si>
+    <t>Animal,dog,cat,cute</t>
+  </si>
+  <si>
+    <t>#animal,#dog,#cat,#cute,</t>
+  </si>
+  <si>
+    <t>Farm</t>
+  </si>
+  <si>
+    <t>Farm,agriculture,plant</t>
+  </si>
+  <si>
+    <t>#farm,#agriculture,#plant,</t>
+  </si>
+  <si>
+    <t>Skills</t>
+  </si>
+  <si>
+    <t>Skill,puzzle,intelligent</t>
+  </si>
+  <si>
+    <t>#skill,#puzzle,#intelligent,</t>
+  </si>
+  <si>
+    <t>Math</t>
+  </si>
+  <si>
+    <t>Skill,math</t>
+  </si>
+  <si>
+    <t>#skill,#math,</t>
+  </si>
+  <si>
+    <t>Others</t>
+  </si>
+  <si>
+    <t>others</t>
+  </si>
+  <si>
+    <t>Game,game online, game flash</t>
+  </si>
+  <si>
+    <t>#game,#gameonline,#gameflash</t>
+  </si>
+  <si>
+    <t>Cat</t>
+  </si>
+  <si>
+    <t>Cat,animal</t>
+  </si>
+  <si>
+    <t>#cat,#animal,</t>
+  </si>
+  <si>
+    <t>Simulation</t>
+  </si>
+  <si>
+    <t>Simulation,action,skill</t>
+  </si>
+  <si>
+    <t>#simulation,#action,#skill,</t>
+  </si>
+  <si>
+    <t>Board game</t>
+  </si>
+  <si>
+    <t>Board-game</t>
+  </si>
+  <si>
+    <t>Board-game,skill</t>
+  </si>
+  <si>
+    <t>#boardgame,#skill,</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
+      <b val="0"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <b/>
+      <b val="1"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -63,39 +515,31 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="gray125">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+  <cellXfs count="2">
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotTableStyle1"/>
 </styleSheet>
 </file>
 
@@ -385,52 +829,1032 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
+  <dimension ref="A1:E63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="2" max="3" width="20" customWidth="1"/>
-    <col min="4" max="4" width="30" customWidth="1"/>
-    <col min="5" max="5" width="20" customWidth="1"/>
-    <col min="6" max="6" width="30" customWidth="1"/>
+    <col min="1" max="1" width="20" customWidth="true" style="0"/>
+    <col min="2" max="2" width="20" customWidth="true" style="0"/>
+    <col min="3" max="3" width="30" customWidth="true" style="0"/>
+    <col min="4" max="4" width="20" customWidth="true" style="0"/>
+    <col min="5" max="5" width="30" customWidth="true" style="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
         <v>12</v>
       </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3">
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s">
         <v>13</v>
       </c>
-      <c r="B3" t="s">
-        <v>2</v>
+      <c r="E4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7"/>
+      <c r="E7"/>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8">
+        <v>9</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8"/>
+      <c r="E8"/>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9">
+        <v>10</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9"/>
+      <c r="E9"/>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10">
+        <v>11</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11">
+        <v>12</v>
+      </c>
+      <c r="B11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11"/>
+      <c r="E11"/>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12">
+        <v>13</v>
+      </c>
+      <c r="B12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12"/>
+      <c r="E12"/>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13">
+        <v>14</v>
+      </c>
+      <c r="B13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" t="s">
+        <v>31</v>
+      </c>
+      <c r="E13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14">
+        <v>15</v>
+      </c>
+      <c r="B14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14"/>
+      <c r="E14"/>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15">
+        <v>16</v>
+      </c>
+      <c r="B15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15"/>
+      <c r="E15"/>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16">
+        <v>17</v>
+      </c>
+      <c r="B16" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16"/>
+      <c r="E16"/>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17">
+        <v>18</v>
+      </c>
+      <c r="B17" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" t="s">
+        <v>37</v>
+      </c>
+      <c r="D17"/>
+      <c r="E17"/>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18">
+        <v>19</v>
+      </c>
+      <c r="B18" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" t="s">
+        <v>38</v>
+      </c>
+      <c r="D18" t="s">
+        <v>39</v>
+      </c>
+      <c r="E18" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19">
+        <v>20</v>
+      </c>
+      <c r="B19" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19" t="s">
+        <v>41</v>
+      </c>
+      <c r="D19" t="s">
+        <v>42</v>
+      </c>
+      <c r="E19" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20">
+        <v>21</v>
+      </c>
+      <c r="B20" t="s">
+        <v>44</v>
+      </c>
+      <c r="C20" t="s">
+        <v>44</v>
+      </c>
+      <c r="D20"/>
+      <c r="E20"/>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21">
+        <v>22</v>
+      </c>
+      <c r="B21" t="s">
+        <v>45</v>
+      </c>
+      <c r="C21" t="s">
+        <v>45</v>
+      </c>
+      <c r="D21" t="s">
+        <v>46</v>
+      </c>
+      <c r="E21" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>48</v>
+      </c>
+      <c r="C22" t="s">
+        <v>48</v>
+      </c>
+      <c r="D22"/>
+      <c r="E22"/>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>49</v>
+      </c>
+      <c r="C23" t="s">
+        <v>49</v>
+      </c>
+      <c r="D23"/>
+      <c r="E23"/>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24">
+        <v>25</v>
+      </c>
+      <c r="B24" t="s">
+        <v>50</v>
+      </c>
+      <c r="C24" t="s">
+        <v>50</v>
+      </c>
+      <c r="D24" t="s">
+        <v>51</v>
+      </c>
+      <c r="E24" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25">
+        <v>26</v>
+      </c>
+      <c r="B25" t="s">
+        <v>53</v>
+      </c>
+      <c r="C25" t="s">
+        <v>53</v>
+      </c>
+      <c r="D25" t="s">
+        <v>54</v>
+      </c>
+      <c r="E25" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26">
+        <v>27</v>
+      </c>
+      <c r="B26" t="s">
+        <v>56</v>
+      </c>
+      <c r="C26" t="s">
+        <v>56</v>
+      </c>
+      <c r="D26"/>
+      <c r="E26"/>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27">
+        <v>28</v>
+      </c>
+      <c r="B27" t="s">
+        <v>57</v>
+      </c>
+      <c r="C27" t="s">
+        <v>57</v>
+      </c>
+      <c r="D27" t="s">
+        <v>58</v>
+      </c>
+      <c r="E27" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28">
+        <v>29</v>
+      </c>
+      <c r="B28" t="s">
+        <v>60</v>
+      </c>
+      <c r="C28" t="s">
+        <v>60</v>
+      </c>
+      <c r="D28" t="s">
+        <v>61</v>
+      </c>
+      <c r="E28" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29">
+        <v>30</v>
+      </c>
+      <c r="B29" t="s">
+        <v>63</v>
+      </c>
+      <c r="C29" t="s">
+        <v>63</v>
+      </c>
+      <c r="D29"/>
+      <c r="E29"/>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30">
+        <v>31</v>
+      </c>
+      <c r="B30" t="s">
+        <v>64</v>
+      </c>
+      <c r="C30" t="s">
+        <v>64</v>
+      </c>
+      <c r="D30" t="s">
+        <v>65</v>
+      </c>
+      <c r="E30" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31">
+        <v>32</v>
+      </c>
+      <c r="B31" t="s">
+        <v>67</v>
+      </c>
+      <c r="C31" t="s">
+        <v>67</v>
+      </c>
+      <c r="D31"/>
+      <c r="E31"/>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32">
+        <v>33</v>
+      </c>
+      <c r="B32" t="s">
+        <v>68</v>
+      </c>
+      <c r="C32" t="s">
+        <v>68</v>
+      </c>
+      <c r="D32"/>
+      <c r="E32"/>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33">
+        <v>34</v>
+      </c>
+      <c r="B33" t="s">
+        <v>69</v>
+      </c>
+      <c r="C33" t="s">
+        <v>69</v>
+      </c>
+      <c r="D33" t="s">
+        <v>70</v>
+      </c>
+      <c r="E33" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34">
+        <v>35</v>
+      </c>
+      <c r="B34" t="s">
+        <v>72</v>
+      </c>
+      <c r="C34" t="s">
+        <v>72</v>
+      </c>
+      <c r="D34" t="s">
+        <v>73</v>
+      </c>
+      <c r="E34" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35">
+        <v>36</v>
+      </c>
+      <c r="B35" t="s">
+        <v>75</v>
+      </c>
+      <c r="C35" t="s">
+        <v>75</v>
+      </c>
+      <c r="D35" t="s">
+        <v>76</v>
+      </c>
+      <c r="E35" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36">
+        <v>37</v>
+      </c>
+      <c r="B36" t="s">
+        <v>78</v>
+      </c>
+      <c r="C36" t="s">
+        <v>78</v>
+      </c>
+      <c r="D36" t="s">
+        <v>79</v>
+      </c>
+      <c r="E36" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37">
+        <v>38</v>
+      </c>
+      <c r="B37" t="s">
+        <v>81</v>
+      </c>
+      <c r="C37" t="s">
+        <v>81</v>
+      </c>
+      <c r="D37" t="s">
+        <v>82</v>
+      </c>
+      <c r="E37" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38">
+        <v>39</v>
+      </c>
+      <c r="B38" t="s">
+        <v>84</v>
+      </c>
+      <c r="C38" t="s">
+        <v>84</v>
+      </c>
+      <c r="D38" t="s">
+        <v>85</v>
+      </c>
+      <c r="E38" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39">
+        <v>40</v>
+      </c>
+      <c r="B39" t="s">
+        <v>87</v>
+      </c>
+      <c r="C39" t="s">
+        <v>87</v>
+      </c>
+      <c r="D39"/>
+      <c r="E39"/>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40">
+        <v>41</v>
+      </c>
+      <c r="B40" t="s">
+        <v>88</v>
+      </c>
+      <c r="C40" t="s">
+        <v>88</v>
+      </c>
+      <c r="D40" t="s">
+        <v>89</v>
+      </c>
+      <c r="E40" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41">
+        <v>42</v>
+      </c>
+      <c r="B41" t="s">
+        <v>91</v>
+      </c>
+      <c r="C41" t="s">
+        <v>91</v>
+      </c>
+      <c r="D41"/>
+      <c r="E41"/>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42">
+        <v>43</v>
+      </c>
+      <c r="B42" t="s">
+        <v>92</v>
+      </c>
+      <c r="C42" t="s">
+        <v>92</v>
+      </c>
+      <c r="D42" t="s">
+        <v>92</v>
+      </c>
+      <c r="E42" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43">
+        <v>44</v>
+      </c>
+      <c r="B43" t="s">
+        <v>94</v>
+      </c>
+      <c r="C43" t="s">
+        <v>94</v>
+      </c>
+      <c r="D43" t="s">
+        <v>95</v>
+      </c>
+      <c r="E43" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44">
+        <v>45</v>
+      </c>
+      <c r="B44" t="s">
+        <v>97</v>
+      </c>
+      <c r="C44" t="s">
+        <v>97</v>
+      </c>
+      <c r="D44" t="s">
+        <v>98</v>
+      </c>
+      <c r="E44" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45">
+        <v>46</v>
+      </c>
+      <c r="B45" t="s">
+        <v>100</v>
+      </c>
+      <c r="C45" t="s">
+        <v>100</v>
+      </c>
+      <c r="D45" t="s">
+        <v>101</v>
+      </c>
+      <c r="E45" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46">
+        <v>47</v>
+      </c>
+      <c r="B46" t="s">
+        <v>103</v>
+      </c>
+      <c r="C46" t="s">
+        <v>103</v>
+      </c>
+      <c r="D46"/>
+      <c r="E46"/>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47">
+        <v>48</v>
+      </c>
+      <c r="B47" t="s">
+        <v>104</v>
+      </c>
+      <c r="C47" t="s">
+        <v>104</v>
+      </c>
+      <c r="D47" t="s">
+        <v>105</v>
+      </c>
+      <c r="E47" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48">
+        <v>49</v>
+      </c>
+      <c r="B48" t="s">
+        <v>107</v>
+      </c>
+      <c r="C48" t="s">
+        <v>107</v>
+      </c>
+      <c r="D48" t="s">
+        <v>108</v>
+      </c>
+      <c r="E48" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49">
+        <v>50</v>
+      </c>
+      <c r="B49" t="s">
+        <v>110</v>
+      </c>
+      <c r="C49" t="s">
+        <v>110</v>
+      </c>
+      <c r="D49" t="s">
+        <v>111</v>
+      </c>
+      <c r="E49" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50">
+        <v>51</v>
+      </c>
+      <c r="B50" t="s">
+        <v>113</v>
+      </c>
+      <c r="C50" t="s">
+        <v>114</v>
+      </c>
+      <c r="D50" t="s">
+        <v>115</v>
+      </c>
+      <c r="E50" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51">
+        <v>52</v>
+      </c>
+      <c r="B51" t="s">
+        <v>117</v>
+      </c>
+      <c r="C51" t="s">
+        <v>117</v>
+      </c>
+      <c r="D51" t="s">
+        <v>118</v>
+      </c>
+      <c r="E51" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52">
+        <v>53</v>
+      </c>
+      <c r="B52" t="s">
+        <v>120</v>
+      </c>
+      <c r="C52" t="s">
+        <v>120</v>
+      </c>
+      <c r="D52" t="s">
+        <v>120</v>
+      </c>
+      <c r="E52" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53">
+        <v>54</v>
+      </c>
+      <c r="B53" t="s">
+        <v>122</v>
+      </c>
+      <c r="C53" t="s">
+        <v>122</v>
+      </c>
+      <c r="D53" t="s">
+        <v>123</v>
+      </c>
+      <c r="E53" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54">
+        <v>55</v>
+      </c>
+      <c r="B54" t="s">
+        <v>125</v>
+      </c>
+      <c r="C54" t="s">
+        <v>125</v>
+      </c>
+      <c r="D54" t="s">
+        <v>125</v>
+      </c>
+      <c r="E54" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55">
+        <v>56</v>
+      </c>
+      <c r="B55" t="s">
+        <v>127</v>
+      </c>
+      <c r="C55" t="s">
+        <v>127</v>
+      </c>
+      <c r="D55" t="s">
+        <v>128</v>
+      </c>
+      <c r="E55" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56">
+        <v>57</v>
+      </c>
+      <c r="B56" t="s">
+        <v>130</v>
+      </c>
+      <c r="C56" t="s">
+        <v>130</v>
+      </c>
+      <c r="D56" t="s">
+        <v>131</v>
+      </c>
+      <c r="E56" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57">
+        <v>58</v>
+      </c>
+      <c r="B57" t="s">
+        <v>133</v>
+      </c>
+      <c r="C57" t="s">
+        <v>133</v>
+      </c>
+      <c r="D57" t="s">
+        <v>134</v>
+      </c>
+      <c r="E57" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58">
+        <v>59</v>
+      </c>
+      <c r="B58" t="s">
+        <v>136</v>
+      </c>
+      <c r="C58" t="s">
+        <v>136</v>
+      </c>
+      <c r="D58" t="s">
+        <v>137</v>
+      </c>
+      <c r="E58" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59">
+        <v>60</v>
+      </c>
+      <c r="B59" t="s">
+        <v>139</v>
+      </c>
+      <c r="C59" t="s">
+        <v>139</v>
+      </c>
+      <c r="D59" t="s">
+        <v>140</v>
+      </c>
+      <c r="E59" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60">
+        <v>61</v>
+      </c>
+      <c r="B60" t="s">
+        <v>142</v>
+      </c>
+      <c r="C60" t="s">
+        <v>143</v>
+      </c>
+      <c r="D60" t="s">
+        <v>144</v>
+      </c>
+      <c r="E60" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61">
+        <v>63</v>
+      </c>
+      <c r="B61" t="s">
+        <v>146</v>
+      </c>
+      <c r="C61" t="s">
+        <v>146</v>
+      </c>
+      <c r="D61" t="s">
+        <v>147</v>
+      </c>
+      <c r="E61" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62">
+        <v>64</v>
+      </c>
+      <c r="B62" t="s">
+        <v>149</v>
+      </c>
+      <c r="C62" t="s">
+        <v>149</v>
+      </c>
+      <c r="D62" t="s">
+        <v>150</v>
+      </c>
+      <c r="E62" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63">
+        <v>65</v>
+      </c>
+      <c r="B63" t="s">
+        <v>152</v>
+      </c>
+      <c r="C63" t="s">
+        <v>153</v>
+      </c>
+      <c r="D63" t="s">
+        <v>154</v>
+      </c>
+      <c r="E63" t="s">
+        <v>155</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
+  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
+    <oddHeader/>
+    <oddFooter/>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
 </worksheet>
 </file>